--- a/Feature list - MVP and phase 2.xlsx
+++ b/Feature list - MVP and phase 2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RFPs\Acorn Holdings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitkumar13\Documents\GitHub\iota-pay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B0238-4644-4CBF-B600-72EFB8EAEC99}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0310C558-0570-4AA5-AA2B-C503689E7735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11270" windowHeight="5850" activeTab="1" xr2:uid="{3508C692-B2A6-4F48-8064-5A448C0B3264}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11270" windowHeight="5850" xr2:uid="{3508C692-B2A6-4F48-8064-5A448C0B3264}"/>
   </bookViews>
   <sheets>
     <sheet name="Scope Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Scope Sheet'!$A$2:$E$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Scope Sheet'!$A$2:$F$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -250,9 +249,6 @@
     <t>Account creation</t>
   </si>
   <si>
-    <t>my bookings</t>
-  </si>
-  <si>
     <t>invite and earn</t>
   </si>
   <si>
@@ -389,6 +385,9 @@
   </si>
   <si>
     <t>User module</t>
+  </si>
+  <si>
+    <t>my bookings - New</t>
   </si>
 </sst>
 </file>
@@ -754,233 +753,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC12FF5-AABF-4744-B5A1-49AC64F8736B}">
-  <dimension ref="A2:E89"/>
+  <dimension ref="A2:F90"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E11" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>86</v>
+        <v>108</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -988,13 +1031,16 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1002,27 +1048,33 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>86</v>
+        <v>52</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>86</v>
+        <v>53</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1030,13 +1082,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>86</v>
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1044,13 +1099,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>86</v>
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1058,13 +1116,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>86</v>
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1072,13 +1133,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1086,13 +1150,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1100,13 +1167,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>86</v>
+        <v>18</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1114,13 +1184,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>86</v>
+        <v>19</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1128,41 +1201,50 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>82</v>
+      <c r="E29" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1170,13 +1252,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1184,13 +1269,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1200,819 +1288,863 @@
       <c r="B32" t="s">
         <v>90</v>
       </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="E46" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
         <v>96</v>
       </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
         <v>97</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="E50" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
         <v>98</v>
       </c>
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D58" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="E58" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
         <v>66</v>
       </c>
-      <c r="C58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B60" t="s">
         <v>100</v>
       </c>
-      <c r="C60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>27</v>
+        <v>79</v>
+      </c>
+      <c r="D63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="D64" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
         <v>30</v>
       </c>
-      <c r="C66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" t="s">
-        <v>82</v>
-      </c>
       <c r="D67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="E67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="C68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" t="s">
-        <v>55</v>
-      </c>
       <c r="D69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="E69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="E70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
         <v>50</v>
       </c>
-      <c r="C71" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" t="s">
-        <v>82</v>
-      </c>
       <c r="D72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="E72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="E73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="E75" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="E76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="E77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="E78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
         <v>64</v>
       </c>
-      <c r="C79" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" t="s">
-        <v>55</v>
-      </c>
       <c r="D80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="E80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="E81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B82" t="s">
         <v>69</v>
       </c>
-      <c r="C82" t="s">
-        <v>82</v>
-      </c>
       <c r="D82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B83" t="s">
         <v>69</v>
       </c>
-      <c r="C83" t="s">
-        <v>82</v>
-      </c>
       <c r="D83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="E83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
         <v>32</v>
       </c>
-      <c r="C84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>33</v>
       </c>
-      <c r="C85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
         <v>34</v>
       </c>
-      <c r="C86" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
         <v>35</v>
       </c>
-      <c r="C87" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
+      <c r="D88" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>41</v>
       </c>
-      <c r="C88" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
+      <c r="D89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" t="s">
         <v>104</v>
       </c>
-      <c r="B89" t="s">
-        <v>105</v>
-      </c>
-      <c r="C89" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" t="s">
-        <v>86</v>
+      <c r="D90" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E89" xr:uid="{61566FDC-C12F-4B53-939A-33A6989BE818}"/>
+  <autoFilter ref="A2:F90" xr:uid="{61566FDC-C12F-4B53-939A-33A6989BE818}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2021,7 +2153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837ED448-2C4C-4051-A9C3-B3698D8C5A20}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2032,23 +2164,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>115</v>
-      </c>
-      <c r="D1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
